--- a/1099-MISC/1099-MISC-Testfile.xlsx
+++ b/1099-MISC/1099-MISC-Testfile.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5CA\Documents\Scripts\FormatCSVScript\1099-MISC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5CA\Documents\Scripts\FormatCSVScript\1099-MISC\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="14490" windowHeight="3480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10425" windowHeight="3090"/>
   </bookViews>
   <sheets>
-    <sheet name="CTZ 94" sheetId="1" r:id="rId1"/>
+    <sheet name="1099-MISC-Testfile" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,21 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="220">
   <si>
-    <t xml:space="preserve">*Recipient TIN
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Customer ID
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recipient Acct #
-</t>
-  </si>
-  <si>
-    <t>*Group</t>
-  </si>
-  <si>
     <t>Recipient Entity Type</t>
   </si>
   <si>
@@ -154,11 +139,6 @@
     <t>84-0755371</t>
   </si>
   <si>
-    <t>*TIN Type(0 = Undetermined
-1 = EIN
-2 = SSN )</t>
-  </si>
-  <si>
     <t>Houma</t>
   </si>
   <si>
@@ -703,6 +683,24 @@
   </si>
   <si>
     <t>Print Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recipient TIN
+</t>
+  </si>
+  <si>
+    <t>TIN Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer ID
+</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recipient Acct
+</t>
   </si>
 </sst>
 </file>
@@ -753,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -767,18 +765,20 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1095,17 +1095,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="7" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.140625" style="2" customWidth="1"/>
     <col min="8" max="9" width="18.140625" bestFit="1" customWidth="1"/>
@@ -1127,8 +1127,8 @@
     <col min="27" max="27" width="11.28515625" customWidth="1"/>
     <col min="28" max="28" width="12.140625" customWidth="1"/>
     <col min="29" max="29" width="11.7109375" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" customWidth="1"/>
-    <col min="31" max="31" width="12" customWidth="1"/>
+    <col min="30" max="30" width="46.7109375" customWidth="1"/>
+    <col min="31" max="31" width="15.5703125" customWidth="1"/>
     <col min="34" max="34" width="10.5703125" customWidth="1"/>
     <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -1136,196 +1136,268 @@
     <col min="38" max="38" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="S1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="V1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="X1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="Y1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="Z1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="AA1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="AB1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AC1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AD1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AE1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AF1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AG1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AH1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AI1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AK1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>219</v>
+      <c r="AL1" s="5" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>175</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s">
-        <v>164</v>
+        <v>159</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S2">
         <v>102255.85</v>
       </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
       <c r="AB2">
         <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>100</v>
+      </c>
+      <c r="AK2">
+        <v>0.1</v>
+      </c>
+      <c r="AL2">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O3">
         <v>19182</v>
       </c>
       <c r="Q3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="R3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1342,34 +1414,34 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="O4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="Q4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1386,34 +1458,34 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="O5">
         <v>7003</v>
       </c>
       <c r="Q5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="R5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1430,34 +1502,34 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="O6">
         <v>30309</v>
       </c>
       <c r="Q6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1474,34 +1546,34 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1518,34 +1590,34 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="O8">
         <v>22182</v>
       </c>
       <c r="Q8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="R8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1562,34 +1634,34 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O9">
         <v>78957</v>
       </c>
       <c r="Q9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="R9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1606,34 +1678,34 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="N10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Q10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S10">
         <v>23400</v>
@@ -1650,34 +1722,34 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O11">
         <v>75082</v>
       </c>
       <c r="Q11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="R11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1694,34 +1766,34 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="N12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O12">
         <v>40513</v>
       </c>
       <c r="Q12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="R12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1738,34 +1810,34 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="M13" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O13">
         <v>79101</v>
       </c>
       <c r="Q13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="R13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1782,34 +1854,34 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="N14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="O14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="R14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1826,34 +1898,34 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O15">
         <v>70346</v>
       </c>
       <c r="Q15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1870,34 +1942,34 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O16" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Q16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -1914,34 +1986,34 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O17">
         <v>78729</v>
       </c>
       <c r="Q17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="R17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -1958,34 +2030,34 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M18" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O18" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Q18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="R18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2002,34 +2074,34 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="N19" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="O19">
         <v>53029</v>
       </c>
       <c r="Q19" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="R19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2046,34 +2118,34 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="O20">
         <v>60642</v>
       </c>
       <c r="Q20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2090,34 +2162,34 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M21" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="O21" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Q21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2134,34 +2206,34 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J22" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O22">
         <v>79102</v>
       </c>
       <c r="Q22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="R22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2178,34 +2250,34 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M23" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="N23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="O23">
         <v>32439</v>
       </c>
       <c r="Q23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="R23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -2222,34 +2294,34 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J24" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M24" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O24" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S24">
         <v>5600</v>
@@ -2266,34 +2338,34 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J25" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M25" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N25" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O25">
         <v>70346</v>
       </c>
       <c r="Q25" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -2310,34 +2382,34 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J26" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M26" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="N26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O26">
         <v>70444</v>
       </c>
       <c r="Q26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -2354,34 +2426,34 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J27" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M27" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="N27" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O27">
         <v>70607</v>
       </c>
       <c r="Q27" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -2398,34 +2470,34 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G28" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J28" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M28" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N28" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O28">
         <v>75771</v>
       </c>
       <c r="Q28" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="R28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -2442,34 +2514,34 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G29" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J29" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M29" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O29" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="Q29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -2486,34 +2558,34 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G30" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J30" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M30" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="N30" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="O30">
         <v>60515</v>
       </c>
       <c r="Q30" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -2530,34 +2602,34 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G31" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J31" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M31" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="N31" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O31">
         <v>70075</v>
       </c>
       <c r="Q31" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2574,34 +2646,34 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G32" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J32" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M32" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="N32" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O32">
         <v>71203</v>
       </c>
       <c r="Q32" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -2618,34 +2690,34 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G33" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M33" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="N33" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="O33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="Q33" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="R33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S33">
         <v>10386</v>
@@ -2662,34 +2734,34 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B34" s="3">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G34" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J34" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M34" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N34" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="O34" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Q34" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="R34" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S34">
         <v>17001</v>
@@ -2706,34 +2778,34 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B35" s="3">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G35" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M35" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="N35" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Q35" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R35" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -2750,34 +2822,34 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B36" s="3">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G36" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M36" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N36" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O36" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Q36" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R36" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -2794,34 +2866,34 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B37" s="3">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G37" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J37" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M37" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="N37" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O37">
         <v>70570</v>
       </c>
       <c r="Q37" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -2838,34 +2910,34 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B38" s="3">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G38" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M38" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N38" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="O38">
         <v>6102</v>
       </c>
       <c r="Q38" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="R38" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -2882,34 +2954,34 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G39" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M39" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="N39" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O39" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Q39" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S39">
         <v>14850</v>
@@ -2926,34 +2998,34 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B40" s="3">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G40" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J40" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="M40" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N40" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O40" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Q40" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="R40" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S40">
         <v>0</v>
